--- a/LOF_base_detectors_ensemble.xlsx
+++ b/LOF_base_detectors_ensemble.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>ensemble_methods</t>
   </si>
@@ -25,6 +25,66 @@
     <t>avg_better_auc</t>
   </si>
   <si>
+    <t>ensem_max:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_2std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_2std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_2std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_2std:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_iqr:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_iqr:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_iqr:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_iqr:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_iqr:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_mad:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_mad:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_mad:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_mad:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_mad:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_max:thr_std:dis_max_rsd</t>
+  </si>
+  <si>
     <t>ensem_sum_self:thr_2std:dis_std</t>
   </si>
   <si>
@@ -85,66 +145,6 @@
     <t>ensem_sum_self:thr_std:dis_max_rsd</t>
   </si>
   <si>
-    <t>ensem_max:thr_2std:dis_std</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_2std:dis_mad</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_2std:dis_sum_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_2std:dis_std_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_2std:dis_max_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_iqr:dis_std</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_iqr:dis_mad</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_iqr:dis_sum_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_iqr:dis_std_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_iqr:dis_max_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_mad:dis_std</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_mad:dis_mad</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_mad:dis_sum_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_mad:dis_std_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_mad:dis_max_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_std:dis_std</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_std:dis_mad</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_std:dis_sum_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_std:dis_std_rsd</t>
-  </si>
-  <si>
-    <t>ensem_max:thr_std:dis_max_rsd</t>
-  </si>
-  <si>
     <t>ensem_mean:thr_2std:dis_std</t>
   </si>
   <si>
@@ -383,6 +383,66 @@
   </si>
   <si>
     <t>ensem_sodi:thr_std:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_max_rsd</t>
   </si>
 </sst>
 </file>
@@ -740,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,1122 +819,1122 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>0.03319244851494205</v>
+        <v>0.02253056330987132</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>0.03223731041577524</v>
+        <v>0.02794950827227134</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>0.04389568151414266</v>
+        <v>0.02586425693053731</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1885,10 +1945,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1899,10 +1959,10 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1913,10 +1973,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1927,10 +1987,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1941,10 +2001,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1955,10 +2015,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1969,10 +2029,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1983,10 +2043,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1997,10 +2057,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2011,10 +2071,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2025,10 +2085,10 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2039,10 +2099,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2053,10 +2113,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2067,10 +2127,10 @@
         <v>96</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2081,10 +2141,10 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2095,10 +2155,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2109,10 +2169,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2123,10 +2183,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2137,10 +2197,10 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2151,10 +2211,10 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>0.02373657705822585</v>
+        <v>0.01696637295011599</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2165,10 +2225,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2179,10 +2239,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2193,10 +2253,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2207,10 +2267,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2221,10 +2281,10 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2235,10 +2295,10 @@
         <v>108</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2249,10 +2309,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2263,10 +2323,10 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2277,10 +2337,10 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2291,10 +2351,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2305,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2319,10 +2379,10 @@
         <v>114</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2333,10 +2393,10 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2347,10 +2407,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2361,10 +2421,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2375,10 +2435,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2389,10 +2449,10 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2403,10 +2463,10 @@
         <v>120</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2417,10 +2477,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2431,10 +2491,290 @@
         <v>122</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>0.02133809368758122</v>
+        <v>0.01306079956298364</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0.00762910798122074</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0.00762910798122074</v>
       </c>
     </row>
   </sheetData>
